--- a/artfynd/A 43967-2023.xlsx
+++ b/artfynd/A 43967-2023.xlsx
@@ -1257,7 +1257,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>102517653</v>
+        <v>102530153</v>
       </c>
       <c r="B7" t="n">
         <v>77541</v>
@@ -1303,7 +1303,7 @@
         <v>6939481.774579371</v>
       </c>
       <c r="S7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>102517660</v>
+        <v>102530160</v>
       </c>
       <c r="B12" t="n">
         <v>78569</v>
@@ -1883,7 +1883,7 @@
         <v>6939330.407555501</v>
       </c>
       <c r="S12" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>102517661</v>
+        <v>102530161</v>
       </c>
       <c r="B13" t="n">
         <v>77258</v>
@@ -1999,7 +1999,7 @@
         <v>6939288.622716768</v>
       </c>
       <c r="S13" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>102517663</v>
+        <v>102530164</v>
       </c>
       <c r="B14" t="n">
         <v>77258</v>
@@ -2115,7 +2115,7 @@
         <v>6939249.476586913</v>
       </c>
       <c r="S14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>102517658</v>
+        <v>102530158</v>
       </c>
       <c r="B22" t="n">
         <v>77259</v>
@@ -3051,7 +3051,7 @@
         <v>6939319.462307255</v>
       </c>
       <c r="S22" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>102517654</v>
+        <v>102530154</v>
       </c>
       <c r="B23" t="n">
         <v>78098</v>
@@ -3167,7 +3167,7 @@
         <v>6939249.476586913</v>
       </c>
       <c r="S23" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>102517662</v>
+        <v>102530162</v>
       </c>
       <c r="B24" t="n">
         <v>77258</v>
@@ -3283,7 +3283,7 @@
         <v>6939319.462307255</v>
       </c>
       <c r="S24" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>102517665</v>
+        <v>102530165</v>
       </c>
       <c r="B26" t="n">
         <v>77258</v>
@@ -3515,7 +3515,7 @@
         <v>6939242.609854415</v>
       </c>
       <c r="S26" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>102517675</v>
+        <v>102530175</v>
       </c>
       <c r="B27" t="n">
         <v>96334</v>
@@ -3631,7 +3631,7 @@
         <v>6939452.705409032</v>
       </c>
       <c r="S27" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>102517656</v>
+        <v>102530156</v>
       </c>
       <c r="B32" t="n">
         <v>89392</v>
@@ -4229,7 +4229,7 @@
         <v>6939451.806695666</v>
       </c>
       <c r="S32" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>102517673</v>
+        <v>102530173</v>
       </c>
       <c r="B35" t="n">
         <v>96334</v>
@@ -4577,7 +4577,7 @@
         <v>6939239.233428793</v>
       </c>
       <c r="S35" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>102517655</v>
+        <v>102530155</v>
       </c>
       <c r="B36" t="n">
         <v>78098</v>
@@ -4693,7 +4693,7 @@
         <v>6939288.622716768</v>
       </c>
       <c r="S36" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>102517684</v>
+        <v>102530184</v>
       </c>
       <c r="B41" t="n">
         <v>77506</v>
@@ -5273,7 +5273,7 @@
         <v>6939446.615588477</v>
       </c>
       <c r="S41" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>102517659</v>
+        <v>102530159</v>
       </c>
       <c r="B45" t="n">
         <v>77259</v>
@@ -5746,7 +5746,7 @@
         <v>6939249.476586913</v>
       </c>
       <c r="S45" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
